--- a/Project2/Data Sources.xlsx
+++ b/Project2/Data Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Creativa2D\Documents\GitHub\databootcamp\Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DB80B46-B6E4-4971-B898-7E4C8DE36CB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDBF1A3-1D71-4E76-9E8A-D4339F6E4029}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{3817A91C-63A4-4D1E-AA33-2223EEB54580}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
   <si>
     <t>Name</t>
   </si>
@@ -192,6 +192,16 @@
   </si>
   <si>
     <t>Language use among U.S. immigrants</t>
+  </si>
+  <si>
+    <t>SELECTED CHARACTERISTICS OF THE FOREIGN-BORN POPULATION BY PERIOD OF ENTRY INTO THE UNITED STATES</t>
+  </si>
+  <si>
+    <t>Survey/Program: American Community Survey
+Years: 2018,2017,2016,2015,2014,2013,2012,2011,2010</t>
+  </si>
+  <si>
+    <t>https://data.census.gov/cedsci/table?q=Inmmigration&amp;tid=ACSDP1Y2018.DP02&amp;hidePreview=false</t>
   </si>
 </sst>
 </file>
@@ -772,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F087A1F6-4F41-44DD-8162-2116D47021E6}">
   <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1019,7 +1029,20 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -1103,9 +1126,10 @@
     <hyperlink ref="B11" r:id="rId10" xr:uid="{046CA9E3-F8C9-400F-BDEA-91E64433DD4C}"/>
     <hyperlink ref="B12" r:id="rId11" xr:uid="{3AAAF105-4CF0-4434-ABFA-D27ABEF781BF}"/>
     <hyperlink ref="B13" r:id="rId12" xr:uid="{A4D1B6EA-F64B-470F-92E0-2DA1232A7470}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{301C0390-C3BD-46BB-B733-2983C665516A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
